--- a/inputs/AddictO-Relationships.xlsx
+++ b/inputs/AddictO-Relationships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B7A757-E93E-4A3E-BED2-B90F272E057F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BEFFF2-BE9D-4FBC-9826-F1851D83E716}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -45,15 +45,9 @@
     <t>Range</t>
   </si>
   <si>
-    <t>a studies b iff a is an agent and b is an entity where a  has a study investigator role in a research activity with the aim of gathering information about b.</t>
-  </si>
-  <si>
     <t>Participant in (BFO)</t>
   </si>
   <si>
-    <t>Has behaviour</t>
-  </si>
-  <si>
     <t>a has behaviour b iff a is a human being and b is a human behaviour and a is an agent that participates in b.</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>Inverse of produces</t>
   </si>
   <si>
-    <t xml:space="preserve">a uses b iff a and b are participants in a behaviour in which a is an agent interacts with b in order to achieve a goal. </t>
-  </si>
-  <si>
     <t>A relationship that holds between two entities in which the processes executed by the two entities are causally connected.</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>subclass of</t>
   </si>
   <si>
-    <t>studies</t>
-  </si>
-  <si>
     <t>has behaviour</t>
   </si>
   <si>
@@ -126,10 +114,19 @@
     <t>produced by</t>
   </si>
   <si>
-    <t>uses</t>
-  </si>
-  <si>
     <t>interacts with</t>
+  </si>
+  <si>
+    <t>can study</t>
+  </si>
+  <si>
+    <t>a can study b iff a is an agent and b is an entity where some a has a study investigator role in a research activity with the aim of gathering information about some b.</t>
+  </si>
+  <si>
+    <t>can use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a can use b iff some a and some b are participants in a behaviour in which a is an agent interacts with b in order to achieve a goal. </t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,10 +508,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -523,49 +520,49 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -573,57 +570,54 @@
     </row>
     <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -631,13 +625,13 @@
     </row>
     <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
